--- a/resources/wheels/231 - Казачонок.xlsx
+++ b/resources/wheels/231 - Казачонок.xlsx
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -699,16 +699,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -907,9 +907,9 @@
       <c r="F16" s="19">
         <v>58.1</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>82.800000000000011</v>
+        <v>95.98900000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -1003,7 +1003,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>3.306</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -1013,7 +1015,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.489</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -1023,7 +1027,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>3.394</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -1542,16 +1548,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1750,9 +1756,9 @@
       <c r="F16" s="19">
         <v>58.1</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>82.800000000000011</v>
+        <v>95.98900000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -1846,7 +1852,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>3.306</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -1856,7 +1864,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.489</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -1866,7 +1876,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>3.394</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -2385,16 +2397,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2593,9 +2605,9 @@
       <c r="F16" s="19">
         <v>58.1</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>82.800000000000011</v>
+        <v>95.98900000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -2689,7 +2701,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>3.306</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -2699,7 +2713,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.489</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -2709,7 +2725,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>3.394</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -3228,16 +3246,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3436,9 +3454,9 @@
       <c r="F16" s="19">
         <v>58.1</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>82.800000000000011</v>
+        <v>95.98900000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -3532,7 +3550,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>3.306</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -3542,7 +3562,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.489</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -3552,7 +3574,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>3.394</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -4071,16 +4095,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4279,9 +4303,9 @@
       <c r="F16" s="19">
         <v>58.1</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>82.800000000000011</v>
+        <v>95.98900000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -4375,7 +4399,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>3.306</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -4385,7 +4411,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.489</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -4395,7 +4423,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>3.394</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -4914,16 +4944,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5122,9 +5152,9 @@
       <c r="F16" s="19">
         <v>58.1</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>82.800000000000011</v>
+        <v>95.98900000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -5218,7 +5248,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>3.306</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -5228,7 +5260,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.489</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -5238,7 +5272,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>3.394</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -5757,16 +5793,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5965,9 +6001,9 @@
       <c r="F16" s="19">
         <v>58.1</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>82.800000000000011</v>
+        <v>95.98900000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6061,7 +6097,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>3.306</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -6071,7 +6109,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.489</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -6081,7 +6121,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>3.394</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -6600,16 +6642,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6808,9 +6850,9 @@
       <c r="F16" s="19">
         <v>58.1</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>82.800000000000011</v>
+        <v>95.98900000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6904,7 +6946,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>3.306</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -6914,7 +6958,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.489</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -6924,7 +6970,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>3.394</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -7443,16 +7491,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7651,9 +7699,9 @@
       <c r="F16" s="19">
         <v>58.1</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>82.800000000000011</v>
+        <v>95.98900000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -7747,7 +7795,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>3.306</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -7757,7 +7807,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.489</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -7767,7 +7819,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>3.394</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -8286,16 +8340,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8494,9 +8548,9 @@
       <c r="F16" s="19">
         <v>58.1</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>82.800000000000011</v>
+        <v>95.98900000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -8590,7 +8644,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>3.306</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -8600,7 +8656,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.489</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -8610,7 +8668,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>3.394</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -9129,16 +9189,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9337,9 +9397,9 @@
       <c r="F16" s="19">
         <v>58.1</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>82.800000000000011</v>
+        <v>95.98900000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -9433,7 +9493,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>3.306</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -9443,7 +9505,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.489</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -9453,7 +9517,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>3.394</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -9972,16 +10038,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10180,9 +10246,9 @@
       <c r="F16" s="19">
         <v>58.1</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>82.800000000000011</v>
+        <v>95.98900000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -10276,7 +10342,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>3.306</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -10286,7 +10354,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.489</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -10296,7 +10366,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>3.394</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -10815,16 +10887,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11023,9 +11095,9 @@
       <c r="F16" s="19">
         <v>58.1</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>82.800000000000011</v>
+        <v>95.98900000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -11119,7 +11191,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>3.306</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -11129,7 +11203,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.489</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -11139,7 +11215,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>3.394</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
